--- a/BinarySearch/Flowers by Khansa Oktober 2024.xlsx
+++ b/BinarySearch/Flowers by Khansa Oktober 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App\Xampp\htdocs\prototype-penjualan-bunga\BinarySearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8088E93-15A9-45BD-AB01-056C347403ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6D81EF-2E0E-4525-BAB3-B7CC4E1F870A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEPTEMBER" sheetId="1" r:id="rId1"/>
@@ -801,7 +801,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -810,7 +810,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3924,8 +3924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="91" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView topLeftCell="A24" zoomScale="74" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5998,8 +5998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="C1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9196,8 +9196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F171"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9208,6 +9208,7 @@
     <col min="4" max="4" width="16.07421875" customWidth="1"/>
     <col min="5" max="5" width="18.15234375" customWidth="1"/>
     <col min="6" max="6" width="16.69140625" customWidth="1"/>
+    <col min="7" max="7" width="16.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -12459,6 +12460,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12466,8 +12468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F156"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -15453,8 +15455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="84" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A3" zoomScale="126" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -15543,7 +15545,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -15552,7 +15554,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>

--- a/BinarySearch/Flowers by Khansa Oktober 2024.xlsx
+++ b/BinarySearch/Flowers by Khansa Oktober 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App\Xampp\htdocs\prototype-penjualan-bunga\BinarySearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6D81EF-2E0E-4525-BAB3-B7CC4E1F870A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D032AA-6880-4DCD-9932-3429D9F33045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEPTEMBER" sheetId="1" r:id="rId1"/>
@@ -775,22 +775,22 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.4140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.4140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.23046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.23046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.765625" customWidth="1"/>
-    <col min="10" max="10" width="16.69140625" customWidth="1"/>
-    <col min="11" max="11" width="13.61328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.75" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -801,7 +801,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -810,7 +810,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -821,7 +821,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -853,7 +853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -884,7 +884,7 @@
         <v>7908</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -904,7 +904,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -924,7 +924,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -944,7 +944,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -964,7 +964,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -984,7 +984,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>15</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>16</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>17</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>18</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>19</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>20</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>21</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>22</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>23</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>24</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>25</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>1573.5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>26</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>1561.5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>27</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>1591.5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>28</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>1630.5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>29</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>1698.5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>1</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>1</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>2</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>3</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>4</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>5</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>730.5</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <v>6</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>705.5</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
         <v>7</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>743.5</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="5">
         <v>8</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>773.5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
         <v>9</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>824.5</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="5">
         <v>10</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>927.5</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="5">
         <v>11</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>1086.5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="5">
         <v>12</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>1145.5</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
         <v>13</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>1302.5</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="5">
         <v>14</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>1392.5</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="5">
         <v>15</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>1379.5</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="5">
         <v>16</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>1450.5</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="5">
         <v>17</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>1480.5</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="5">
         <v>18</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>1446.5</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="5">
         <v>19</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>1476.5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="5">
         <v>20</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>1474.5</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="5">
         <v>21</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>1507.5</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="5">
         <v>22</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>1542.5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="5">
         <v>23</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>1577.5</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="5">
         <v>24</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>1607.5</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="5">
         <v>25</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>1617.5</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="5">
         <v>26</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>1513.5</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
         <v>1</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="5">
         <v>1</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="5">
         <v>2</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="5">
         <v>3</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="5">
         <v>4</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="5">
         <v>5</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="5">
         <v>6</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="5">
         <v>7</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="5">
         <v>8</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="5">
         <v>9</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="5">
         <v>10</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="5">
         <v>11</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="5">
         <v>12</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="5">
         <v>13</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="5">
         <v>14</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="5">
         <v>15</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="5">
         <v>16</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="5">
         <v>17</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="5">
         <v>18</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="5">
         <v>19</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="5">
         <v>20</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" s="5">
         <v>21</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" s="5">
         <v>22</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
         <v>1</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="5">
         <v>1</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" s="5">
         <v>2</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" s="5">
         <v>3</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94" s="5">
         <v>4</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95" s="5">
         <v>5</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96" s="5">
         <v>6</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97" s="5">
         <v>7</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" s="5">
         <v>8</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99" s="5">
         <v>9</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100" s="5">
         <v>10</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" s="5">
         <v>11</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" s="5">
         <v>12</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103" s="5">
         <v>13</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" s="5">
         <v>14</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105" s="5">
         <v>15</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106" s="5">
         <v>16</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" s="5">
         <v>17</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108" s="5">
         <v>18</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109" s="5">
         <v>19</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110" s="5">
         <v>20</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111" s="5">
         <v>21</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112" s="5">
         <v>22</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113" s="5">
         <v>23</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114" s="5">
         <v>24</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115" s="5">
         <v>25</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116" s="5">
         <v>26</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117" s="5">
         <v>27</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118" s="5">
         <v>28</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119" s="5">
         <v>29</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A120" s="5">
         <v>30</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A121" s="5">
         <v>31</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A122" s="5">
         <v>32</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A123" s="5">
         <v>33</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A124" s="5">
         <v>34</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A125" s="5">
         <v>35</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A126" s="5">
         <v>36</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A127" s="5">
         <v>37</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A130" s="3" t="s">
         <v>1</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A131" s="5">
         <v>1</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A132" s="5">
         <v>2</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A133" s="5">
         <v>3</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A134" s="5">
         <v>4</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A135" s="5">
         <v>5</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A136" s="5">
         <v>6</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A137" s="5">
         <v>7</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A138" s="5">
         <v>8</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A139" s="5">
         <v>9</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A140" s="5">
         <v>10</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A141" s="5">
         <v>11</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A142" s="5">
         <v>12</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A143" s="5">
         <v>13</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A144" s="5">
         <v>14</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A145" s="5">
         <v>15</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A146" s="5">
         <v>16</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A147" s="5">
         <v>17</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A148" s="5">
         <v>18</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A149" s="5">
         <v>19</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A150" s="5">
         <v>20</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A151" s="5">
         <v>21</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A152" s="5">
         <v>22</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A153" s="5">
         <v>23</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A154" s="5">
         <v>24</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A155" s="5">
         <v>25</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A156" s="5">
         <v>26</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A157" s="5">
         <v>27</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A158" s="5">
         <v>28</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A159" s="5">
         <v>29</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A160" s="5">
         <v>30</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A161" s="5">
         <v>31</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A162" s="5">
         <v>32</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A163" s="5">
         <v>33</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A164" s="5">
         <v>34</v>
       </c>
@@ -3924,21 +3924,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="74" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="74" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.4140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="10.23046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.4609375" customWidth="1"/>
-    <col min="5" max="5" width="17.69140625" customWidth="1"/>
-    <col min="6" max="6" width="20.15234375" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -5998,21 +5998,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="101" workbookViewId="0">
+    <sheetView topLeftCell="C162" zoomScale="101" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.4140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.69140625" customWidth="1"/>
-    <col min="5" max="5" width="18.61328125" customWidth="1"/>
-    <col min="6" max="6" width="15.4609375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.58203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="5">
         <v>110</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="5">
         <v>111</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="5">
         <v>112</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="5">
         <v>118</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="5">
         <v>119</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="5">
         <v>122</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="5">
         <v>130</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" s="5">
         <v>131</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="5">
         <v>133</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="5">
         <v>134</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="5">
         <v>141</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="5">
         <v>142</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" s="5">
         <v>149</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" s="5">
         <v>150</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" s="5">
         <v>158</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" s="5">
         <v>159</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" s="5">
         <v>160</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" s="5">
         <v>161</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" s="5">
         <v>162</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" s="5">
         <v>163</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" s="5">
         <v>164</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" s="5">
         <v>165</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167" s="5">
         <v>166</v>
       </c>
@@ -9196,22 +9196,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F171"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
+    <sheetView topLeftCell="A166" zoomScale="88" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.3828125" customWidth="1"/>
-    <col min="2" max="2" width="22.765625" customWidth="1"/>
-    <col min="3" max="3" width="17.07421875" customWidth="1"/>
-    <col min="4" max="4" width="16.07421875" customWidth="1"/>
-    <col min="5" max="5" width="18.15234375" customWidth="1"/>
-    <col min="6" max="6" width="16.69140625" customWidth="1"/>
-    <col min="7" max="7" width="16.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.4140625" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="17.08203125" customWidth="1"/>
+    <col min="4" max="4" width="16.08203125" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -9704,7 +9704,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -10502,7 +10502,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -10804,7 +10804,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -10956,7 +10956,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -10975,7 +10975,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -11013,7 +11013,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -11032,7 +11032,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -11222,7 +11222,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="5">
         <v>110</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="5">
         <v>111</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="5">
         <v>112</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -11374,7 +11374,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -11412,7 +11412,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="5">
         <v>118</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="5">
         <v>119</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="5">
         <v>122</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -11621,7 +11621,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -11678,7 +11678,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="5">
         <v>130</v>
       </c>
@@ -11697,7 +11697,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" s="5">
         <v>131</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="5">
         <v>133</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="5">
         <v>134</v>
       </c>
@@ -11773,7 +11773,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -11792,7 +11792,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -11811,7 +11811,7 @@
         <v>1628.5</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="5">
         <v>141</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="5">
         <v>142</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -12039,7 +12039,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" s="5">
         <v>149</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" s="5">
         <v>150</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -12191,7 +12191,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" s="5">
         <v>158</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" s="5">
         <v>159</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" s="5">
         <v>160</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" s="5">
         <v>161</v>
       </c>
@@ -12286,7 +12286,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" s="5">
         <v>162</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" s="5">
         <v>163</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" s="5">
         <v>164</v>
       </c>
@@ -12343,7 +12343,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" s="5">
         <v>165</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167" s="5">
         <v>166</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169" s="5">
         <v>168</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A170" s="5">
         <v>169</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A171" s="5">
         <v>170</v>
       </c>
@@ -12468,20 +12468,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A104" zoomScale="94" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:F132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18.61328125" customWidth="1"/>
-    <col min="3" max="3" width="15.3828125" customWidth="1"/>
+    <col min="2" max="2" width="18.58203125" customWidth="1"/>
+    <col min="3" max="3" width="15.4140625" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.69140625" customWidth="1"/>
-    <col min="6" max="6" width="16.4609375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -12539,7 +12539,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -12577,7 +12577,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -12634,7 +12634,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -12862,7 +12862,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -12881,7 +12881,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -12938,7 +12938,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -12976,7 +12976,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -13014,7 +13014,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -13033,7 +13033,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -13071,7 +13071,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -13090,7 +13090,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -13128,7 +13128,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -13204,7 +13204,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -13223,7 +13223,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -13242,7 +13242,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -13261,7 +13261,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -13299,7 +13299,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -13337,7 +13337,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -13375,7 +13375,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -13394,7 +13394,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -13413,7 +13413,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -13451,7 +13451,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -13470,7 +13470,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -13489,7 +13489,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -13508,7 +13508,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -13527,7 +13527,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -13565,7 +13565,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -13584,7 +13584,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -13641,7 +13641,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -13660,7 +13660,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -13698,7 +13698,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -13717,7 +13717,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -13736,7 +13736,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -13755,7 +13755,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -13774,7 +13774,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -13831,7 +13831,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -13850,7 +13850,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -13869,7 +13869,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -13888,7 +13888,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -13907,7 +13907,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -13945,7 +13945,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -13964,7 +13964,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -14002,7 +14002,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -14021,7 +14021,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -14040,7 +14040,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -14059,7 +14059,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -14097,7 +14097,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -14135,7 +14135,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -14154,7 +14154,7 @@
         <v>844.5</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -14173,7 +14173,7 @@
         <v>922.5</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -14192,7 +14192,7 @@
         <v>952.5</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -14211,7 +14211,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -14230,7 +14230,7 @@
         <v>982.5</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -14249,7 +14249,7 @@
         <v>962.5</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -14268,7 +14268,7 @@
         <v>941.5</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -14287,7 +14287,7 @@
         <v>991.5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -14306,7 +14306,7 @@
         <v>1075.5</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -14325,7 +14325,7 @@
         <v>1080.5</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>1125.5</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -14363,7 +14363,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -14382,7 +14382,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -14401,7 +14401,7 @@
         <v>1261.5</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>1414.5</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>1459.5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -14458,7 +14458,7 @@
         <v>1507.5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -14477,7 +14477,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -14496,7 +14496,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>163.5</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -14534,7 +14534,7 @@
         <v>247.5</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -14553,7 +14553,7 @@
         <v>277.5</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -14572,7 +14572,7 @@
         <v>465.5</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="5">
         <v>110</v>
       </c>
@@ -14591,7 +14591,7 @@
         <v>515.5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="5">
         <v>111</v>
       </c>
@@ -14610,7 +14610,7 @@
         <v>615.5</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="5">
         <v>112</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v>660.5</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>690.5</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -14667,7 +14667,7 @@
         <v>896.5</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -14686,7 +14686,7 @@
         <v>951.5</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>1001.5</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>1151.5</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="5">
         <v>118</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>1154.5</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="5">
         <v>119</v>
       </c>
@@ -14762,7 +14762,7 @@
         <v>1119.5</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -14781,7 +14781,7 @@
         <v>1149.5</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -14800,7 +14800,7 @@
         <v>1256.5</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="5">
         <v>122</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>1317.5</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -14838,7 +14838,7 @@
         <v>1452.5</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>1569.5</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -14876,7 +14876,7 @@
         <v>1574.5</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -14895,7 +14895,7 @@
         <v>1589.5</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -14914,7 +14914,7 @@
         <v>1649.5</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -14933,7 +14933,7 @@
         <v>1709.5</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -14952,7 +14952,7 @@
         <v>1741.5</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="5">
         <v>130</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" s="5">
         <v>131</v>
       </c>
@@ -14990,7 +14990,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -15009,7 +15009,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="5">
         <v>133</v>
       </c>
@@ -15028,7 +15028,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="5">
         <v>134</v>
       </c>
@@ -15047,7 +15047,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -15066,7 +15066,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -15085,7 +15085,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -15104,7 +15104,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -15123,7 +15123,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -15142,7 +15142,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -15161,7 +15161,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="5">
         <v>141</v>
       </c>
@@ -15180,7 +15180,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="5">
         <v>142</v>
       </c>
@@ -15199,7 +15199,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -15218,7 +15218,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -15237,7 +15237,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -15256,7 +15256,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -15275,7 +15275,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -15294,7 +15294,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -15313,7 +15313,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" s="5">
         <v>149</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" s="5">
         <v>150</v>
       </c>
@@ -15351,7 +15351,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -15370,7 +15370,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -15389,7 +15389,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -15427,7 +15427,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -15459,22 +15459,22 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="23"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="24" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="24"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -15482,7 +15482,7 @@
         <v>47200000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>2625000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -15498,7 +15498,7 @@
         <v>21460000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -15520,21 +15520,21 @@
       <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3828125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.07421875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.23046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.15234375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.69140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>56</v>
       </c>
@@ -15545,7 +15545,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -15554,7 +15554,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -15565,7 +15565,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -15597,7 +15597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>7484</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -15649,7 +15649,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -15669,7 +15669,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -15689,7 +15689,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -15709,7 +15709,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -15729,7 +15729,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -15749,7 +15749,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -15769,7 +15769,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -15809,7 +15809,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -15829,7 +15829,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -15849,7 +15849,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -15869,7 +15869,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -15889,7 +15889,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>15</v>
       </c>
@@ -15909,7 +15909,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>16</v>
       </c>
@@ -15929,7 +15929,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>17</v>
       </c>
@@ -15949,7 +15949,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>18</v>
       </c>
@@ -15969,7 +15969,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>19</v>
       </c>
@@ -15989,7 +15989,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>20</v>
       </c>
@@ -16009,7 +16009,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>21</v>
       </c>
@@ -16029,7 +16029,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>22</v>
       </c>
@@ -16049,7 +16049,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>23</v>
       </c>
@@ -16069,7 +16069,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>24</v>
       </c>
@@ -16089,7 +16089,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>25</v>
       </c>
@@ -16109,7 +16109,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>26</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>27</v>
       </c>
@@ -16149,7 +16149,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>28</v>
       </c>
@@ -16169,7 +16169,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>29</v>
       </c>
@@ -16189,7 +16189,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>30</v>
       </c>
@@ -16209,7 +16209,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>31</v>
       </c>
@@ -16229,7 +16229,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>32</v>
       </c>
@@ -16249,7 +16249,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>33</v>
       </c>
@@ -16269,7 +16269,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>34</v>
       </c>
@@ -16289,7 +16289,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>35</v>
       </c>
@@ -16309,7 +16309,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>36</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>37</v>
       </c>
@@ -16349,7 +16349,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <v>38</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
         <v>39</v>
       </c>
@@ -16389,7 +16389,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="5">
         <v>40</v>
       </c>
@@ -16409,7 +16409,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
         <v>41</v>
       </c>
@@ -16429,7 +16429,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="5">
         <v>42</v>
       </c>
@@ -16449,7 +16449,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="5">
         <v>43</v>
       </c>
@@ -16469,7 +16469,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="5">
         <v>44</v>
       </c>
@@ -16489,7 +16489,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
         <v>45</v>
       </c>
@@ -16509,7 +16509,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="5">
         <v>46</v>
       </c>
@@ -16529,7 +16529,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="5">
         <v>47</v>
       </c>
@@ -16549,7 +16549,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="5">
         <v>48</v>
       </c>
@@ -16569,7 +16569,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="5">
         <v>49</v>
       </c>
@@ -16589,7 +16589,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="5">
         <v>50</v>
       </c>
@@ -16609,7 +16609,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="5">
         <v>51</v>
       </c>
@@ -16629,7 +16629,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="5">
         <v>52</v>
       </c>
@@ -16649,7 +16649,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="5">
         <v>53</v>
       </c>
@@ -16669,7 +16669,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="5">
         <v>54</v>
       </c>
@@ -16689,7 +16689,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="5">
         <v>55</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="5">
         <v>56</v>
       </c>
@@ -16729,7 +16729,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="5">
         <v>57</v>
       </c>
@@ -16749,7 +16749,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="5">
         <v>58</v>
       </c>
@@ -16769,7 +16769,7 @@
         <v>2859</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="5">
         <v>59</v>
       </c>
@@ -16789,7 +16789,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="5">
         <v>60</v>
       </c>
@@ -16809,7 +16809,7 @@
         <v>2956</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="5">
         <v>61</v>
       </c>
@@ -16829,7 +16829,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="5">
         <v>62</v>
       </c>
@@ -16849,7 +16849,7 @@
         <v>3176</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="5">
         <v>63</v>
       </c>
@@ -16869,7 +16869,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="5">
         <v>64</v>
       </c>
@@ -16889,7 +16889,7 @@
         <v>3359</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="5">
         <v>65</v>
       </c>
@@ -16909,7 +16909,7 @@
         <v>3434</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="5">
         <v>66</v>
       </c>
@@ -16929,7 +16929,7 @@
         <v>3439</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="5">
         <v>67</v>
       </c>
@@ -16949,7 +16949,7 @@
         <v>3444</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="5">
         <v>68</v>
       </c>
@@ -16969,7 +16969,7 @@
         <v>3459</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="5">
         <v>69</v>
       </c>
@@ -16989,7 +16989,7 @@
         <v>3498</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="5">
         <v>70</v>
       </c>
@@ -17009,7 +17009,7 @@
         <v>3503</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="5">
         <v>71</v>
       </c>
@@ -17029,7 +17029,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>1</v>
       </c>
@@ -17052,7 +17052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="5">
         <v>1</v>
       </c>
@@ -17072,7 +17072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="5">
         <v>2</v>
       </c>
@@ -17092,7 +17092,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="5">
         <v>3</v>
       </c>
@@ -17112,7 +17112,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="5">
         <v>4</v>
       </c>
@@ -17132,7 +17132,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="5">
         <v>5</v>
       </c>
@@ -17152,7 +17152,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="5">
         <v>6</v>
       </c>
@@ -17172,7 +17172,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="5">
         <v>7</v>
       </c>
@@ -17192,7 +17192,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" s="5">
         <v>8</v>
       </c>
@@ -17212,7 +17212,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" s="5">
         <v>9</v>
       </c>
@@ -17232,7 +17232,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88" s="5">
         <v>10</v>
       </c>
@@ -17252,7 +17252,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" s="5">
         <v>11</v>
       </c>
@@ -17272,7 +17272,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" s="5">
         <v>12</v>
       </c>
@@ -17292,7 +17292,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="5">
         <v>13</v>
       </c>
@@ -17312,7 +17312,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" s="5">
         <v>14</v>
       </c>
@@ -17332,7 +17332,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" s="5">
         <v>15</v>
       </c>
@@ -17352,7 +17352,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94" s="5">
         <v>16</v>
       </c>
@@ -17372,7 +17372,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95" s="5">
         <v>17</v>
       </c>
@@ -17392,7 +17392,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96" s="5">
         <v>18</v>
       </c>
@@ -17412,7 +17412,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97" s="5">
         <v>19</v>
       </c>
@@ -17432,7 +17432,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" s="5">
         <v>20</v>
       </c>
@@ -17452,7 +17452,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99" s="5">
         <v>21</v>
       </c>
@@ -17472,7 +17472,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100" s="5">
         <v>22</v>
       </c>
@@ -17492,7 +17492,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" s="5">
         <v>23</v>
       </c>
@@ -17512,7 +17512,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" s="5">
         <v>24</v>
       </c>
@@ -17532,7 +17532,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103" s="5">
         <v>25</v>
       </c>
@@ -17552,7 +17552,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" s="5">
         <v>26</v>
       </c>
@@ -17572,7 +17572,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105" s="5">
         <v>27</v>
       </c>
@@ -17592,7 +17592,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106" s="5">
         <v>28</v>
       </c>
@@ -17612,7 +17612,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" s="5">
         <v>29</v>
       </c>
@@ -17632,7 +17632,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108" s="5">
         <v>30</v>
       </c>
@@ -17652,7 +17652,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109" s="5">
         <v>31</v>
       </c>
@@ -17672,7 +17672,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110" s="5">
         <v>32</v>
       </c>
@@ -17692,7 +17692,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111" s="5">
         <v>33</v>
       </c>
@@ -17712,7 +17712,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112" s="5">
         <v>34</v>
       </c>
@@ -17732,7 +17732,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113" s="5">
         <v>35</v>
       </c>
@@ -17752,7 +17752,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114" s="5">
         <v>36</v>
       </c>
@@ -17772,7 +17772,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115" s="5">
         <v>37</v>
       </c>
@@ -17792,7 +17792,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116" s="5">
         <v>38</v>
       </c>
@@ -17812,7 +17812,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117" s="5">
         <v>39</v>
       </c>
@@ -17832,7 +17832,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118" s="5">
         <v>40</v>
       </c>
@@ -17852,7 +17852,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119" s="5">
         <v>41</v>
       </c>
@@ -17872,7 +17872,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A120" s="5">
         <v>42</v>
       </c>
@@ -17892,7 +17892,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A121" s="5">
         <v>43</v>
       </c>
@@ -17912,7 +17912,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A122" s="5">
         <v>44</v>
       </c>
@@ -17932,7 +17932,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A123" s="5">
         <v>45</v>
       </c>
@@ -17952,7 +17952,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A124" s="5">
         <v>46</v>
       </c>
@@ -17972,7 +17972,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A125" s="5">
         <v>47</v>
       </c>
@@ -17992,7 +17992,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A126" s="5">
         <v>48</v>
       </c>
@@ -18012,7 +18012,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A127" s="5">
         <v>49</v>
       </c>
@@ -18032,7 +18032,7 @@
         <v>2826</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A128" s="5">
         <v>50</v>
       </c>
@@ -18052,7 +18052,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A129" s="5">
         <v>51</v>
       </c>
@@ -18072,7 +18072,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A130" s="5">
         <v>52</v>
       </c>
@@ -18092,7 +18092,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A131" s="5">
         <v>53</v>
       </c>
@@ -18112,7 +18112,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A132" s="5">
         <v>54</v>
       </c>
@@ -18132,7 +18132,7 @@
         <v>3128</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A133" s="5">
         <v>55</v>
       </c>
@@ -18152,7 +18152,7 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A134" s="5">
         <v>56</v>
       </c>
@@ -18172,7 +18172,7 @@
         <v>3243</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A135" s="5">
         <v>57</v>
       </c>
@@ -18192,7 +18192,7 @@
         <v>3315</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A136" s="5">
         <v>58</v>
       </c>
@@ -18212,7 +18212,7 @@
         <v>3396</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A137" s="5">
         <v>59</v>
       </c>
@@ -18232,7 +18232,7 @@
         <v>3483</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A138" s="5">
         <v>60</v>
       </c>
@@ -18252,7 +18252,7 @@
         <v>3535</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A139" s="5">
         <v>61</v>
       </c>
@@ -18272,7 +18272,7 @@
         <v>3588</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A140" s="5">
         <v>62</v>
       </c>
@@ -18292,7 +18292,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A141" s="5">
         <v>63</v>
       </c>
@@ -18312,7 +18312,7 @@
         <v>3715</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A142" s="5">
         <v>64</v>
       </c>
@@ -18332,7 +18332,7 @@
         <v>3720</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A143" s="5">
         <v>65</v>
       </c>
@@ -18352,7 +18352,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A144" s="5">
         <v>66</v>
       </c>
@@ -18372,7 +18372,7 @@
         <v>3801</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A145" s="5">
         <v>67</v>
       </c>
@@ -18392,7 +18392,7 @@
         <v>3806</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A146" s="5">
         <v>68</v>
       </c>
@@ -18412,7 +18412,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A147" s="5">
         <v>69</v>
       </c>
@@ -18432,7 +18432,7 @@
         <v>3864</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A148" s="5">
         <v>70</v>
       </c>
@@ -18452,7 +18452,7 @@
         <v>3959</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A149" s="5">
         <v>71</v>
       </c>
